--- a/IpExporter/doc/IP план ТСПД  ПС.xlsx
+++ b/IpExporter/doc/IP план ТСПД  ПС.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.30.52\telemex\СДТУ\Узлы ТСПД ЗЭС IP план\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tasks\Task3\GetTableIPFromDocAndExcel\GetTableIPFromDocAndExcel\IpExporter\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81399DB9-86F5-4006-94CA-66E7E9B8370E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15135"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="642">
   <si>
     <r>
       <rPr>
@@ -14510,12 +14511,15 @@
   <si>
     <t>10.158.172.0/24
 10.158.170.0/26</t>
+  </si>
+  <si>
+    <t>Наименование и номер Пы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -14948,7 +14952,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -15004,6 +15008,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -15025,26 +15050,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -15139,6 +15146,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -15174,6 +15198,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -15349,11 +15390,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B216" sqref="B216:B217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15374,29 +15415,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="25"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
@@ -15432,19 +15473,19 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="28"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
     </row>
     <row r="4" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
@@ -15488,29 +15529,29 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="22"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
@@ -15546,19 +15587,19 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="28"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="25"/>
     </row>
     <row r="9" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -15602,29 +15643,29 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
@@ -15660,19 +15701,19 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="28"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="25"/>
     </row>
     <row r="14" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
@@ -15716,29 +15757,29 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="25"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="32"/>
     </row>
     <row r="17" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
@@ -15774,19 +15815,19 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="28"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="25"/>
     </row>
     <row r="19" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
@@ -15830,29 +15871,29 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="32"/>
     </row>
     <row r="22" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
@@ -15888,19 +15929,19 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="28"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="25"/>
     </row>
     <row r="24" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
@@ -15944,29 +15985,29 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="25"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="32"/>
     </row>
     <row r="27" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="22"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
@@ -16002,19 +16043,19 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="26"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="28"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="25"/>
     </row>
     <row r="29" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
@@ -16058,29 +16099,29 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="25"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="32"/>
     </row>
     <row r="32" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="1" t="s">
         <v>5</v>
       </c>
@@ -16116,19 +16157,19 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="26"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="28"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="25"/>
     </row>
     <row r="34" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
@@ -16172,29 +16213,29 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="25"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="32"/>
     </row>
     <row r="37" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="22"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
@@ -16230,19 +16271,19 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="26"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="28"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="25"/>
     </row>
     <row r="39" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
@@ -16286,29 +16327,29 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="25"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="32"/>
     </row>
     <row r="42" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
-      <c r="B42" s="22"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="1" t="s">
         <v>5</v>
       </c>
@@ -16344,19 +16385,19 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="26"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="28"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="25"/>
     </row>
     <row r="44" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
@@ -16400,29 +16441,29 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="25"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="32"/>
     </row>
     <row r="47" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
-      <c r="B47" s="22"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="1" t="s">
         <v>5</v>
       </c>
@@ -16458,19 +16499,19 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="26"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="28"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="25"/>
     </row>
     <row r="49" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
@@ -16503,10 +16544,10 @@
       <c r="J49" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="K49" s="29" t="s">
+      <c r="K49" s="19" t="s">
         <v>637</v>
       </c>
-      <c r="L49" s="30" t="s">
+      <c r="L49" s="20" t="s">
         <v>638</v>
       </c>
       <c r="M49" s="9" t="s">
@@ -16514,29 +16555,29 @@
       </c>
     </row>
     <row r="51" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="25"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="32"/>
     </row>
     <row r="52" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
-      <c r="B52" s="22"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="29"/>
       <c r="C52" s="1" t="s">
         <v>5</v>
       </c>
@@ -16572,19 +16613,19 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="26"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="28"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="25"/>
     </row>
     <row r="54" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
@@ -16614,13 +16655,13 @@
       <c r="I54" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="J54" s="32" t="s">
+      <c r="J54" s="22" t="s">
         <v>640</v>
       </c>
       <c r="K54" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="L54" s="31" t="s">
+      <c r="L54" s="21" t="s">
         <v>639</v>
       </c>
       <c r="M54" s="9" t="s">
@@ -16628,29 +16669,29 @@
       </c>
     </row>
     <row r="56" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="25"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="32"/>
     </row>
     <row r="57" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A57" s="20"/>
-      <c r="B57" s="22"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="29"/>
       <c r="C57" s="1" t="s">
         <v>5</v>
       </c>
@@ -16686,19 +16727,19 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="26"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="28"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="25"/>
     </row>
     <row r="59" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
@@ -16742,29 +16783,29 @@
       </c>
     </row>
     <row r="61" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="25"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="32"/>
     </row>
     <row r="62" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A62" s="20"/>
-      <c r="B62" s="22"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="29"/>
       <c r="C62" s="1" t="s">
         <v>5</v>
       </c>
@@ -16800,19 +16841,19 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="26"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="28"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="25"/>
     </row>
     <row r="64" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
@@ -16856,29 +16897,29 @@
       </c>
     </row>
     <row r="66" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C66" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="25"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="32"/>
     </row>
     <row r="67" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A67" s="20"/>
-      <c r="B67" s="22"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="29"/>
       <c r="C67" s="1" t="s">
         <v>5</v>
       </c>
@@ -16914,19 +16955,19 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" s="26"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="28"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="25"/>
     </row>
     <row r="69" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
@@ -16970,29 +17011,29 @@
       </c>
     </row>
     <row r="71" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="C71" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="24"/>
-      <c r="M71" s="25"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="31"/>
+      <c r="M71" s="32"/>
     </row>
     <row r="72" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A72" s="20"/>
-      <c r="B72" s="22"/>
+      <c r="A72" s="27"/>
+      <c r="B72" s="29"/>
       <c r="C72" s="1" t="s">
         <v>5</v>
       </c>
@@ -17028,19 +17069,19 @@
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" s="26"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="27"/>
-      <c r="M73" s="28"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="25"/>
     </row>
     <row r="74" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
@@ -17084,29 +17125,29 @@
       </c>
     </row>
     <row r="76" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C76" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="24"/>
-      <c r="M76" s="25"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="31"/>
+      <c r="L76" s="31"/>
+      <c r="M76" s="32"/>
     </row>
     <row r="77" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A77" s="20"/>
-      <c r="B77" s="22"/>
+      <c r="A77" s="27"/>
+      <c r="B77" s="29"/>
       <c r="C77" s="1" t="s">
         <v>5</v>
       </c>
@@ -17142,19 +17183,19 @@
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="26"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="27"/>
-      <c r="M78" s="28"/>
+      <c r="A78" s="23"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="25"/>
     </row>
     <row r="79" spans="1:13" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
@@ -17198,29 +17239,29 @@
       </c>
     </row>
     <row r="81" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="21" t="s">
+      <c r="B81" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="23" t="s">
+      <c r="C81" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="24"/>
-      <c r="J81" s="24"/>
-      <c r="K81" s="24"/>
-      <c r="L81" s="24"/>
-      <c r="M81" s="25"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="31"/>
+      <c r="L81" s="31"/>
+      <c r="M81" s="32"/>
     </row>
     <row r="82" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A82" s="20"/>
-      <c r="B82" s="22"/>
+      <c r="A82" s="27"/>
+      <c r="B82" s="29"/>
       <c r="C82" s="1" t="s">
         <v>5</v>
       </c>
@@ -17256,19 +17297,19 @@
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83" s="26"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="27"/>
-      <c r="M83" s="28"/>
+      <c r="A83" s="23"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="25"/>
     </row>
     <row r="84" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
@@ -17312,29 +17353,29 @@
       </c>
     </row>
     <row r="86" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="21" t="s">
+      <c r="B86" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C86" s="23" t="s">
+      <c r="C86" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="24"/>
-      <c r="J86" s="24"/>
-      <c r="K86" s="24"/>
-      <c r="L86" s="24"/>
-      <c r="M86" s="25"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="31"/>
+      <c r="J86" s="31"/>
+      <c r="K86" s="31"/>
+      <c r="L86" s="31"/>
+      <c r="M86" s="32"/>
     </row>
     <row r="87" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A87" s="20"/>
-      <c r="B87" s="22"/>
+      <c r="A87" s="27"/>
+      <c r="B87" s="29"/>
       <c r="C87" s="1" t="s">
         <v>5</v>
       </c>
@@ -17370,19 +17411,19 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A88" s="26"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="27"/>
-      <c r="K88" s="27"/>
-      <c r="L88" s="27"/>
-      <c r="M88" s="28"/>
+      <c r="A88" s="23"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="24"/>
+      <c r="M88" s="25"/>
     </row>
     <row r="89" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
@@ -17426,29 +17467,29 @@
       </c>
     </row>
     <row r="91" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="21" t="s">
+      <c r="B91" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C91" s="23" t="s">
+      <c r="C91" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="24"/>
-      <c r="K91" s="24"/>
-      <c r="L91" s="24"/>
-      <c r="M91" s="25"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="31"/>
+      <c r="J91" s="31"/>
+      <c r="K91" s="31"/>
+      <c r="L91" s="31"/>
+      <c r="M91" s="32"/>
     </row>
     <row r="92" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A92" s="20"/>
-      <c r="B92" s="22"/>
+      <c r="A92" s="27"/>
+      <c r="B92" s="29"/>
       <c r="C92" s="1" t="s">
         <v>5</v>
       </c>
@@ -17484,19 +17525,19 @@
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A93" s="26"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="27"/>
-      <c r="L93" s="27"/>
-      <c r="M93" s="28"/>
+      <c r="A93" s="23"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="25"/>
     </row>
     <row r="94" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
@@ -17540,29 +17581,29 @@
       </c>
     </row>
     <row r="96" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A96" s="19" t="s">
+      <c r="A96" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="21" t="s">
+      <c r="B96" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="23" t="s">
+      <c r="C96" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="24"/>
-      <c r="K96" s="24"/>
-      <c r="L96" s="24"/>
-      <c r="M96" s="25"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="31"/>
+      <c r="K96" s="31"/>
+      <c r="L96" s="31"/>
+      <c r="M96" s="32"/>
     </row>
     <row r="97" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A97" s="20"/>
-      <c r="B97" s="22"/>
+      <c r="A97" s="27"/>
+      <c r="B97" s="29"/>
       <c r="C97" s="1" t="s">
         <v>5</v>
       </c>
@@ -17598,19 +17639,19 @@
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A98" s="26"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="27"/>
-      <c r="I98" s="27"/>
-      <c r="J98" s="27"/>
-      <c r="K98" s="27"/>
-      <c r="L98" s="27"/>
-      <c r="M98" s="28"/>
+      <c r="A98" s="23"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="24"/>
+      <c r="J98" s="24"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="24"/>
+      <c r="M98" s="25"/>
     </row>
     <row r="99" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
@@ -17654,29 +17695,29 @@
       </c>
     </row>
     <row r="101" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B101" s="21" t="s">
+      <c r="B101" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C101" s="23" t="s">
+      <c r="C101" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="24"/>
-      <c r="I101" s="24"/>
-      <c r="J101" s="24"/>
-      <c r="K101" s="24"/>
-      <c r="L101" s="24"/>
-      <c r="M101" s="25"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="31"/>
+      <c r="I101" s="31"/>
+      <c r="J101" s="31"/>
+      <c r="K101" s="31"/>
+      <c r="L101" s="31"/>
+      <c r="M101" s="32"/>
     </row>
     <row r="102" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="20"/>
-      <c r="B102" s="22"/>
+      <c r="A102" s="27"/>
+      <c r="B102" s="29"/>
       <c r="C102" s="1" t="s">
         <v>5</v>
       </c>
@@ -17712,19 +17753,19 @@
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A103" s="26"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="27"/>
-      <c r="K103" s="27"/>
-      <c r="L103" s="27"/>
-      <c r="M103" s="28"/>
+      <c r="A103" s="23"/>
+      <c r="B103" s="24"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="24"/>
+      <c r="J103" s="24"/>
+      <c r="K103" s="24"/>
+      <c r="L103" s="24"/>
+      <c r="M103" s="25"/>
     </row>
     <row r="104" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
@@ -17768,29 +17809,29 @@
       </c>
     </row>
     <row r="106" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A106" s="19" t="s">
+      <c r="A106" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="21" t="s">
+      <c r="B106" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C106" s="23" t="s">
+      <c r="C106" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D106" s="24"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="24"/>
-      <c r="H106" s="24"/>
-      <c r="I106" s="24"/>
-      <c r="J106" s="24"/>
-      <c r="K106" s="24"/>
-      <c r="L106" s="24"/>
-      <c r="M106" s="25"/>
+      <c r="D106" s="31"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="31"/>
+      <c r="G106" s="31"/>
+      <c r="H106" s="31"/>
+      <c r="I106" s="31"/>
+      <c r="J106" s="31"/>
+      <c r="K106" s="31"/>
+      <c r="L106" s="31"/>
+      <c r="M106" s="32"/>
     </row>
     <row r="107" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A107" s="20"/>
-      <c r="B107" s="22"/>
+      <c r="A107" s="27"/>
+      <c r="B107" s="29"/>
       <c r="C107" s="1" t="s">
         <v>5</v>
       </c>
@@ -17826,19 +17867,19 @@
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A108" s="26"/>
-      <c r="B108" s="27"/>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="27"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="27"/>
-      <c r="J108" s="27"/>
-      <c r="K108" s="27"/>
-      <c r="L108" s="27"/>
-      <c r="M108" s="28"/>
+      <c r="A108" s="23"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="24"/>
+      <c r="I108" s="24"/>
+      <c r="J108" s="24"/>
+      <c r="K108" s="24"/>
+      <c r="L108" s="24"/>
+      <c r="M108" s="25"/>
     </row>
     <row r="109" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
@@ -17882,29 +17923,29 @@
       </c>
     </row>
     <row r="111" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A111" s="19" t="s">
+      <c r="A111" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B111" s="21" t="s">
+      <c r="B111" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C111" s="23" t="s">
+      <c r="C111" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="24"/>
-      <c r="H111" s="24"/>
-      <c r="I111" s="24"/>
-      <c r="J111" s="24"/>
-      <c r="K111" s="24"/>
-      <c r="L111" s="24"/>
-      <c r="M111" s="25"/>
+      <c r="D111" s="31"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="31"/>
+      <c r="G111" s="31"/>
+      <c r="H111" s="31"/>
+      <c r="I111" s="31"/>
+      <c r="J111" s="31"/>
+      <c r="K111" s="31"/>
+      <c r="L111" s="31"/>
+      <c r="M111" s="32"/>
     </row>
     <row r="112" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A112" s="20"/>
-      <c r="B112" s="22"/>
+      <c r="A112" s="27"/>
+      <c r="B112" s="29"/>
       <c r="C112" s="1" t="s">
         <v>5</v>
       </c>
@@ -17940,19 +17981,19 @@
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A113" s="26"/>
-      <c r="B113" s="27"/>
-      <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="27"/>
-      <c r="K113" s="27"/>
-      <c r="L113" s="27"/>
-      <c r="M113" s="28"/>
+      <c r="A113" s="23"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="24"/>
+      <c r="I113" s="24"/>
+      <c r="J113" s="24"/>
+      <c r="K113" s="24"/>
+      <c r="L113" s="24"/>
+      <c r="M113" s="25"/>
     </row>
     <row r="114" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
@@ -17996,29 +18037,29 @@
       </c>
     </row>
     <row r="116" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A116" s="19" t="s">
+      <c r="A116" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B116" s="21" t="s">
+      <c r="B116" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C116" s="23" t="s">
+      <c r="C116" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D116" s="24"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="24"/>
-      <c r="I116" s="24"/>
-      <c r="J116" s="24"/>
-      <c r="K116" s="24"/>
-      <c r="L116" s="24"/>
-      <c r="M116" s="25"/>
+      <c r="D116" s="31"/>
+      <c r="E116" s="31"/>
+      <c r="F116" s="31"/>
+      <c r="G116" s="31"/>
+      <c r="H116" s="31"/>
+      <c r="I116" s="31"/>
+      <c r="J116" s="31"/>
+      <c r="K116" s="31"/>
+      <c r="L116" s="31"/>
+      <c r="M116" s="32"/>
     </row>
     <row r="117" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="20"/>
-      <c r="B117" s="22"/>
+      <c r="A117" s="27"/>
+      <c r="B117" s="29"/>
       <c r="C117" s="1" t="s">
         <v>5</v>
       </c>
@@ -18054,19 +18095,19 @@
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A118" s="26"/>
-      <c r="B118" s="27"/>
-      <c r="C118" s="27"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="27"/>
-      <c r="H118" s="27"/>
-      <c r="I118" s="27"/>
-      <c r="J118" s="27"/>
-      <c r="K118" s="27"/>
-      <c r="L118" s="27"/>
-      <c r="M118" s="28"/>
+      <c r="A118" s="23"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="24"/>
+      <c r="K118" s="24"/>
+      <c r="L118" s="24"/>
+      <c r="M118" s="25"/>
     </row>
     <row r="119" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
@@ -18110,29 +18151,29 @@
       </c>
     </row>
     <row r="121" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A121" s="19" t="s">
+      <c r="A121" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B121" s="21" t="s">
+      <c r="B121" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C121" s="23" t="s">
+      <c r="C121" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D121" s="24"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="24"/>
-      <c r="I121" s="24"/>
-      <c r="J121" s="24"/>
-      <c r="K121" s="24"/>
-      <c r="L121" s="24"/>
-      <c r="M121" s="25"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31"/>
+      <c r="F121" s="31"/>
+      <c r="G121" s="31"/>
+      <c r="H121" s="31"/>
+      <c r="I121" s="31"/>
+      <c r="J121" s="31"/>
+      <c r="K121" s="31"/>
+      <c r="L121" s="31"/>
+      <c r="M121" s="32"/>
     </row>
     <row r="122" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A122" s="20"/>
-      <c r="B122" s="22"/>
+      <c r="A122" s="27"/>
+      <c r="B122" s="29"/>
       <c r="C122" s="1" t="s">
         <v>5</v>
       </c>
@@ -18168,19 +18209,19 @@
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A123" s="26"/>
-      <c r="B123" s="27"/>
-      <c r="C123" s="27"/>
-      <c r="D123" s="27"/>
-      <c r="E123" s="27"/>
-      <c r="F123" s="27"/>
-      <c r="G123" s="27"/>
-      <c r="H123" s="27"/>
-      <c r="I123" s="27"/>
-      <c r="J123" s="27"/>
-      <c r="K123" s="27"/>
-      <c r="L123" s="27"/>
-      <c r="M123" s="28"/>
+      <c r="A123" s="23"/>
+      <c r="B123" s="24"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="24"/>
+      <c r="H123" s="24"/>
+      <c r="I123" s="24"/>
+      <c r="J123" s="24"/>
+      <c r="K123" s="24"/>
+      <c r="L123" s="24"/>
+      <c r="M123" s="25"/>
     </row>
     <row r="124" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
@@ -18224,29 +18265,29 @@
       </c>
     </row>
     <row r="126" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A126" s="19" t="s">
+      <c r="A126" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B126" s="21" t="s">
+      <c r="B126" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C126" s="23" t="s">
+      <c r="C126" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D126" s="24"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="24"/>
-      <c r="G126" s="24"/>
-      <c r="H126" s="24"/>
-      <c r="I126" s="24"/>
-      <c r="J126" s="24"/>
-      <c r="K126" s="24"/>
-      <c r="L126" s="24"/>
-      <c r="M126" s="25"/>
+      <c r="D126" s="31"/>
+      <c r="E126" s="31"/>
+      <c r="F126" s="31"/>
+      <c r="G126" s="31"/>
+      <c r="H126" s="31"/>
+      <c r="I126" s="31"/>
+      <c r="J126" s="31"/>
+      <c r="K126" s="31"/>
+      <c r="L126" s="31"/>
+      <c r="M126" s="32"/>
     </row>
     <row r="127" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A127" s="20"/>
-      <c r="B127" s="22"/>
+      <c r="A127" s="27"/>
+      <c r="B127" s="29"/>
       <c r="C127" s="1" t="s">
         <v>5</v>
       </c>
@@ -18282,19 +18323,19 @@
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A128" s="26"/>
-      <c r="B128" s="27"/>
-      <c r="C128" s="27"/>
-      <c r="D128" s="27"/>
-      <c r="E128" s="27"/>
-      <c r="F128" s="27"/>
-      <c r="G128" s="27"/>
-      <c r="H128" s="27"/>
-      <c r="I128" s="27"/>
-      <c r="J128" s="27"/>
-      <c r="K128" s="27"/>
-      <c r="L128" s="27"/>
-      <c r="M128" s="28"/>
+      <c r="A128" s="23"/>
+      <c r="B128" s="24"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="24"/>
+      <c r="H128" s="24"/>
+      <c r="I128" s="24"/>
+      <c r="J128" s="24"/>
+      <c r="K128" s="24"/>
+      <c r="L128" s="24"/>
+      <c r="M128" s="25"/>
     </row>
     <row r="129" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
@@ -18338,29 +18379,29 @@
       </c>
     </row>
     <row r="131" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A131" s="19" t="s">
+      <c r="A131" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="21" t="s">
+      <c r="B131" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C131" s="23" t="s">
+      <c r="C131" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D131" s="24"/>
-      <c r="E131" s="24"/>
-      <c r="F131" s="24"/>
-      <c r="G131" s="24"/>
-      <c r="H131" s="24"/>
-      <c r="I131" s="24"/>
-      <c r="J131" s="24"/>
-      <c r="K131" s="24"/>
-      <c r="L131" s="24"/>
-      <c r="M131" s="25"/>
+      <c r="D131" s="31"/>
+      <c r="E131" s="31"/>
+      <c r="F131" s="31"/>
+      <c r="G131" s="31"/>
+      <c r="H131" s="31"/>
+      <c r="I131" s="31"/>
+      <c r="J131" s="31"/>
+      <c r="K131" s="31"/>
+      <c r="L131" s="31"/>
+      <c r="M131" s="32"/>
     </row>
     <row r="132" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A132" s="20"/>
-      <c r="B132" s="22"/>
+      <c r="A132" s="27"/>
+      <c r="B132" s="29"/>
       <c r="C132" s="1" t="s">
         <v>5</v>
       </c>
@@ -18396,19 +18437,19 @@
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A133" s="26"/>
-      <c r="B133" s="27"/>
-      <c r="C133" s="27"/>
-      <c r="D133" s="27"/>
-      <c r="E133" s="27"/>
-      <c r="F133" s="27"/>
-      <c r="G133" s="27"/>
-      <c r="H133" s="27"/>
-      <c r="I133" s="27"/>
-      <c r="J133" s="27"/>
-      <c r="K133" s="27"/>
-      <c r="L133" s="27"/>
-      <c r="M133" s="28"/>
+      <c r="A133" s="23"/>
+      <c r="B133" s="24"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="24"/>
+      <c r="G133" s="24"/>
+      <c r="H133" s="24"/>
+      <c r="I133" s="24"/>
+      <c r="J133" s="24"/>
+      <c r="K133" s="24"/>
+      <c r="L133" s="24"/>
+      <c r="M133" s="25"/>
     </row>
     <row r="134" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
@@ -18452,29 +18493,29 @@
       </c>
     </row>
     <row r="136" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A136" s="19" t="s">
+      <c r="A136" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B136" s="21" t="s">
+      <c r="B136" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C136" s="23" t="s">
+      <c r="C136" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D136" s="24"/>
-      <c r="E136" s="24"/>
-      <c r="F136" s="24"/>
-      <c r="G136" s="24"/>
-      <c r="H136" s="24"/>
-      <c r="I136" s="24"/>
-      <c r="J136" s="24"/>
-      <c r="K136" s="24"/>
-      <c r="L136" s="24"/>
-      <c r="M136" s="25"/>
+      <c r="D136" s="31"/>
+      <c r="E136" s="31"/>
+      <c r="F136" s="31"/>
+      <c r="G136" s="31"/>
+      <c r="H136" s="31"/>
+      <c r="I136" s="31"/>
+      <c r="J136" s="31"/>
+      <c r="K136" s="31"/>
+      <c r="L136" s="31"/>
+      <c r="M136" s="32"/>
     </row>
     <row r="137" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A137" s="20"/>
-      <c r="B137" s="22"/>
+      <c r="A137" s="27"/>
+      <c r="B137" s="29"/>
       <c r="C137" s="1" t="s">
         <v>5</v>
       </c>
@@ -18510,19 +18551,19 @@
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A138" s="26"/>
-      <c r="B138" s="27"/>
-      <c r="C138" s="27"/>
-      <c r="D138" s="27"/>
-      <c r="E138" s="27"/>
-      <c r="F138" s="27"/>
-      <c r="G138" s="27"/>
-      <c r="H138" s="27"/>
-      <c r="I138" s="27"/>
-      <c r="J138" s="27"/>
-      <c r="K138" s="27"/>
-      <c r="L138" s="27"/>
-      <c r="M138" s="28"/>
+      <c r="A138" s="23"/>
+      <c r="B138" s="24"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="24"/>
+      <c r="F138" s="24"/>
+      <c r="G138" s="24"/>
+      <c r="H138" s="24"/>
+      <c r="I138" s="24"/>
+      <c r="J138" s="24"/>
+      <c r="K138" s="24"/>
+      <c r="L138" s="24"/>
+      <c r="M138" s="25"/>
     </row>
     <row r="139" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
@@ -18566,29 +18607,29 @@
       </c>
     </row>
     <row r="141" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A141" s="19" t="s">
+      <c r="A141" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B141" s="21" t="s">
+      <c r="B141" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C141" s="23" t="s">
+      <c r="C141" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D141" s="24"/>
-      <c r="E141" s="24"/>
-      <c r="F141" s="24"/>
-      <c r="G141" s="24"/>
-      <c r="H141" s="24"/>
-      <c r="I141" s="24"/>
-      <c r="J141" s="24"/>
-      <c r="K141" s="24"/>
-      <c r="L141" s="24"/>
-      <c r="M141" s="25"/>
+      <c r="D141" s="31"/>
+      <c r="E141" s="31"/>
+      <c r="F141" s="31"/>
+      <c r="G141" s="31"/>
+      <c r="H141" s="31"/>
+      <c r="I141" s="31"/>
+      <c r="J141" s="31"/>
+      <c r="K141" s="31"/>
+      <c r="L141" s="31"/>
+      <c r="M141" s="32"/>
     </row>
     <row r="142" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A142" s="20"/>
-      <c r="B142" s="22"/>
+      <c r="A142" s="27"/>
+      <c r="B142" s="29"/>
       <c r="C142" s="1" t="s">
         <v>5</v>
       </c>
@@ -18624,19 +18665,19 @@
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A143" s="26"/>
-      <c r="B143" s="27"/>
-      <c r="C143" s="27"/>
-      <c r="D143" s="27"/>
-      <c r="E143" s="27"/>
-      <c r="F143" s="27"/>
-      <c r="G143" s="27"/>
-      <c r="H143" s="27"/>
-      <c r="I143" s="27"/>
-      <c r="J143" s="27"/>
-      <c r="K143" s="27"/>
-      <c r="L143" s="27"/>
-      <c r="M143" s="28"/>
+      <c r="A143" s="23"/>
+      <c r="B143" s="24"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="24"/>
+      <c r="F143" s="24"/>
+      <c r="G143" s="24"/>
+      <c r="H143" s="24"/>
+      <c r="I143" s="24"/>
+      <c r="J143" s="24"/>
+      <c r="K143" s="24"/>
+      <c r="L143" s="24"/>
+      <c r="M143" s="25"/>
     </row>
     <row r="144" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
@@ -18680,29 +18721,29 @@
       </c>
     </row>
     <row r="146" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A146" s="19" t="s">
+      <c r="A146" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B146" s="21" t="s">
+      <c r="B146" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C146" s="23" t="s">
+      <c r="C146" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D146" s="24"/>
-      <c r="E146" s="24"/>
-      <c r="F146" s="24"/>
-      <c r="G146" s="24"/>
-      <c r="H146" s="24"/>
-      <c r="I146" s="24"/>
-      <c r="J146" s="24"/>
-      <c r="K146" s="24"/>
-      <c r="L146" s="24"/>
-      <c r="M146" s="25"/>
+      <c r="D146" s="31"/>
+      <c r="E146" s="31"/>
+      <c r="F146" s="31"/>
+      <c r="G146" s="31"/>
+      <c r="H146" s="31"/>
+      <c r="I146" s="31"/>
+      <c r="J146" s="31"/>
+      <c r="K146" s="31"/>
+      <c r="L146" s="31"/>
+      <c r="M146" s="32"/>
     </row>
     <row r="147" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A147" s="20"/>
-      <c r="B147" s="22"/>
+      <c r="A147" s="27"/>
+      <c r="B147" s="29"/>
       <c r="C147" s="1" t="s">
         <v>5</v>
       </c>
@@ -18738,19 +18779,19 @@
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A148" s="26"/>
-      <c r="B148" s="27"/>
-      <c r="C148" s="27"/>
-      <c r="D148" s="27"/>
-      <c r="E148" s="27"/>
-      <c r="F148" s="27"/>
-      <c r="G148" s="27"/>
-      <c r="H148" s="27"/>
-      <c r="I148" s="27"/>
-      <c r="J148" s="27"/>
-      <c r="K148" s="27"/>
-      <c r="L148" s="27"/>
-      <c r="M148" s="28"/>
+      <c r="A148" s="23"/>
+      <c r="B148" s="24"/>
+      <c r="C148" s="24"/>
+      <c r="D148" s="24"/>
+      <c r="E148" s="24"/>
+      <c r="F148" s="24"/>
+      <c r="G148" s="24"/>
+      <c r="H148" s="24"/>
+      <c r="I148" s="24"/>
+      <c r="J148" s="24"/>
+      <c r="K148" s="24"/>
+      <c r="L148" s="24"/>
+      <c r="M148" s="25"/>
     </row>
     <row r="149" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
@@ -18794,29 +18835,29 @@
       </c>
     </row>
     <row r="151" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A151" s="19" t="s">
+      <c r="A151" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B151" s="21" t="s">
+      <c r="B151" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C151" s="23" t="s">
+      <c r="C151" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D151" s="24"/>
-      <c r="E151" s="24"/>
-      <c r="F151" s="24"/>
-      <c r="G151" s="24"/>
-      <c r="H151" s="24"/>
-      <c r="I151" s="24"/>
-      <c r="J151" s="24"/>
-      <c r="K151" s="24"/>
-      <c r="L151" s="24"/>
-      <c r="M151" s="25"/>
+      <c r="D151" s="31"/>
+      <c r="E151" s="31"/>
+      <c r="F151" s="31"/>
+      <c r="G151" s="31"/>
+      <c r="H151" s="31"/>
+      <c r="I151" s="31"/>
+      <c r="J151" s="31"/>
+      <c r="K151" s="31"/>
+      <c r="L151" s="31"/>
+      <c r="M151" s="32"/>
     </row>
     <row r="152" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A152" s="20"/>
-      <c r="B152" s="22"/>
+      <c r="A152" s="27"/>
+      <c r="B152" s="29"/>
       <c r="C152" s="1" t="s">
         <v>5</v>
       </c>
@@ -18852,19 +18893,19 @@
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A153" s="26"/>
-      <c r="B153" s="27"/>
-      <c r="C153" s="27"/>
-      <c r="D153" s="27"/>
-      <c r="E153" s="27"/>
-      <c r="F153" s="27"/>
-      <c r="G153" s="27"/>
-      <c r="H153" s="27"/>
-      <c r="I153" s="27"/>
-      <c r="J153" s="27"/>
-      <c r="K153" s="27"/>
-      <c r="L153" s="27"/>
-      <c r="M153" s="28"/>
+      <c r="A153" s="23"/>
+      <c r="B153" s="24"/>
+      <c r="C153" s="24"/>
+      <c r="D153" s="24"/>
+      <c r="E153" s="24"/>
+      <c r="F153" s="24"/>
+      <c r="G153" s="24"/>
+      <c r="H153" s="24"/>
+      <c r="I153" s="24"/>
+      <c r="J153" s="24"/>
+      <c r="K153" s="24"/>
+      <c r="L153" s="24"/>
+      <c r="M153" s="25"/>
     </row>
     <row r="154" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
@@ -18908,29 +18949,29 @@
       </c>
     </row>
     <row r="156" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A156" s="19" t="s">
+      <c r="A156" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B156" s="21" t="s">
+      <c r="B156" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C156" s="23" t="s">
+      <c r="C156" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D156" s="24"/>
-      <c r="E156" s="24"/>
-      <c r="F156" s="24"/>
-      <c r="G156" s="24"/>
-      <c r="H156" s="24"/>
-      <c r="I156" s="24"/>
-      <c r="J156" s="24"/>
-      <c r="K156" s="24"/>
-      <c r="L156" s="24"/>
-      <c r="M156" s="25"/>
+      <c r="D156" s="31"/>
+      <c r="E156" s="31"/>
+      <c r="F156" s="31"/>
+      <c r="G156" s="31"/>
+      <c r="H156" s="31"/>
+      <c r="I156" s="31"/>
+      <c r="J156" s="31"/>
+      <c r="K156" s="31"/>
+      <c r="L156" s="31"/>
+      <c r="M156" s="32"/>
     </row>
     <row r="157" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A157" s="20"/>
-      <c r="B157" s="22"/>
+      <c r="A157" s="27"/>
+      <c r="B157" s="29"/>
       <c r="C157" s="1" t="s">
         <v>5</v>
       </c>
@@ -18966,19 +19007,19 @@
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A158" s="26"/>
-      <c r="B158" s="27"/>
-      <c r="C158" s="27"/>
-      <c r="D158" s="27"/>
-      <c r="E158" s="27"/>
-      <c r="F158" s="27"/>
-      <c r="G158" s="27"/>
-      <c r="H158" s="27"/>
-      <c r="I158" s="27"/>
-      <c r="J158" s="27"/>
-      <c r="K158" s="27"/>
-      <c r="L158" s="27"/>
-      <c r="M158" s="28"/>
+      <c r="A158" s="23"/>
+      <c r="B158" s="24"/>
+      <c r="C158" s="24"/>
+      <c r="D158" s="24"/>
+      <c r="E158" s="24"/>
+      <c r="F158" s="24"/>
+      <c r="G158" s="24"/>
+      <c r="H158" s="24"/>
+      <c r="I158" s="24"/>
+      <c r="J158" s="24"/>
+      <c r="K158" s="24"/>
+      <c r="L158" s="24"/>
+      <c r="M158" s="25"/>
     </row>
     <row r="159" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A159" s="8" t="s">
@@ -19022,29 +19063,29 @@
       </c>
     </row>
     <row r="161" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A161" s="19" t="s">
+      <c r="A161" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B161" s="21" t="s">
+      <c r="B161" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C161" s="23" t="s">
+      <c r="C161" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D161" s="24"/>
-      <c r="E161" s="24"/>
-      <c r="F161" s="24"/>
-      <c r="G161" s="24"/>
-      <c r="H161" s="24"/>
-      <c r="I161" s="24"/>
-      <c r="J161" s="24"/>
-      <c r="K161" s="24"/>
-      <c r="L161" s="24"/>
-      <c r="M161" s="25"/>
+      <c r="D161" s="31"/>
+      <c r="E161" s="31"/>
+      <c r="F161" s="31"/>
+      <c r="G161" s="31"/>
+      <c r="H161" s="31"/>
+      <c r="I161" s="31"/>
+      <c r="J161" s="31"/>
+      <c r="K161" s="31"/>
+      <c r="L161" s="31"/>
+      <c r="M161" s="32"/>
     </row>
     <row r="162" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A162" s="20"/>
-      <c r="B162" s="22"/>
+      <c r="A162" s="27"/>
+      <c r="B162" s="29"/>
       <c r="C162" s="1" t="s">
         <v>5</v>
       </c>
@@ -19080,19 +19121,19 @@
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A163" s="26"/>
-      <c r="B163" s="27"/>
-      <c r="C163" s="27"/>
-      <c r="D163" s="27"/>
-      <c r="E163" s="27"/>
-      <c r="F163" s="27"/>
-      <c r="G163" s="27"/>
-      <c r="H163" s="27"/>
-      <c r="I163" s="27"/>
-      <c r="J163" s="27"/>
-      <c r="K163" s="27"/>
-      <c r="L163" s="27"/>
-      <c r="M163" s="28"/>
+      <c r="A163" s="23"/>
+      <c r="B163" s="24"/>
+      <c r="C163" s="24"/>
+      <c r="D163" s="24"/>
+      <c r="E163" s="24"/>
+      <c r="F163" s="24"/>
+      <c r="G163" s="24"/>
+      <c r="H163" s="24"/>
+      <c r="I163" s="24"/>
+      <c r="J163" s="24"/>
+      <c r="K163" s="24"/>
+      <c r="L163" s="24"/>
+      <c r="M163" s="25"/>
     </row>
     <row r="164" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A164" s="8" t="s">
@@ -19136,29 +19177,29 @@
       </c>
     </row>
     <row r="166" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A166" s="19" t="s">
+      <c r="A166" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B166" s="21" t="s">
+      <c r="B166" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C166" s="23" t="s">
+      <c r="C166" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D166" s="24"/>
-      <c r="E166" s="24"/>
-      <c r="F166" s="24"/>
-      <c r="G166" s="24"/>
-      <c r="H166" s="24"/>
-      <c r="I166" s="24"/>
-      <c r="J166" s="24"/>
-      <c r="K166" s="24"/>
-      <c r="L166" s="24"/>
-      <c r="M166" s="25"/>
+      <c r="D166" s="31"/>
+      <c r="E166" s="31"/>
+      <c r="F166" s="31"/>
+      <c r="G166" s="31"/>
+      <c r="H166" s="31"/>
+      <c r="I166" s="31"/>
+      <c r="J166" s="31"/>
+      <c r="K166" s="31"/>
+      <c r="L166" s="31"/>
+      <c r="M166" s="32"/>
     </row>
     <row r="167" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A167" s="20"/>
-      <c r="B167" s="22"/>
+      <c r="A167" s="27"/>
+      <c r="B167" s="29"/>
       <c r="C167" s="1" t="s">
         <v>5</v>
       </c>
@@ -19194,19 +19235,19 @@
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A168" s="26"/>
-      <c r="B168" s="27"/>
-      <c r="C168" s="27"/>
-      <c r="D168" s="27"/>
-      <c r="E168" s="27"/>
-      <c r="F168" s="27"/>
-      <c r="G168" s="27"/>
-      <c r="H168" s="27"/>
-      <c r="I168" s="27"/>
-      <c r="J168" s="27"/>
-      <c r="K168" s="27"/>
-      <c r="L168" s="27"/>
-      <c r="M168" s="28"/>
+      <c r="A168" s="23"/>
+      <c r="B168" s="24"/>
+      <c r="C168" s="24"/>
+      <c r="D168" s="24"/>
+      <c r="E168" s="24"/>
+      <c r="F168" s="24"/>
+      <c r="G168" s="24"/>
+      <c r="H168" s="24"/>
+      <c r="I168" s="24"/>
+      <c r="J168" s="24"/>
+      <c r="K168" s="24"/>
+      <c r="L168" s="24"/>
+      <c r="M168" s="25"/>
     </row>
     <row r="169" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A169" s="8" t="s">
@@ -19250,29 +19291,29 @@
       </c>
     </row>
     <row r="171" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A171" s="19" t="s">
+      <c r="A171" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B171" s="21" t="s">
+      <c r="B171" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C171" s="23" t="s">
+      <c r="C171" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D171" s="24"/>
-      <c r="E171" s="24"/>
-      <c r="F171" s="24"/>
-      <c r="G171" s="24"/>
-      <c r="H171" s="24"/>
-      <c r="I171" s="24"/>
-      <c r="J171" s="24"/>
-      <c r="K171" s="24"/>
-      <c r="L171" s="24"/>
-      <c r="M171" s="25"/>
+      <c r="D171" s="31"/>
+      <c r="E171" s="31"/>
+      <c r="F171" s="31"/>
+      <c r="G171" s="31"/>
+      <c r="H171" s="31"/>
+      <c r="I171" s="31"/>
+      <c r="J171" s="31"/>
+      <c r="K171" s="31"/>
+      <c r="L171" s="31"/>
+      <c r="M171" s="32"/>
     </row>
     <row r="172" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A172" s="20"/>
-      <c r="B172" s="22"/>
+      <c r="A172" s="27"/>
+      <c r="B172" s="29"/>
       <c r="C172" s="1" t="s">
         <v>5</v>
       </c>
@@ -19308,19 +19349,19 @@
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A173" s="26"/>
-      <c r="B173" s="27"/>
-      <c r="C173" s="27"/>
-      <c r="D173" s="27"/>
-      <c r="E173" s="27"/>
-      <c r="F173" s="27"/>
-      <c r="G173" s="27"/>
-      <c r="H173" s="27"/>
-      <c r="I173" s="27"/>
-      <c r="J173" s="27"/>
-      <c r="K173" s="27"/>
-      <c r="L173" s="27"/>
-      <c r="M173" s="28"/>
+      <c r="A173" s="23"/>
+      <c r="B173" s="24"/>
+      <c r="C173" s="24"/>
+      <c r="D173" s="24"/>
+      <c r="E173" s="24"/>
+      <c r="F173" s="24"/>
+      <c r="G173" s="24"/>
+      <c r="H173" s="24"/>
+      <c r="I173" s="24"/>
+      <c r="J173" s="24"/>
+      <c r="K173" s="24"/>
+      <c r="L173" s="24"/>
+      <c r="M173" s="25"/>
     </row>
     <row r="174" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="s">
@@ -19364,29 +19405,29 @@
       </c>
     </row>
     <row r="176" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A176" s="19" t="s">
+      <c r="A176" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B176" s="21" t="s">
+      <c r="B176" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C176" s="23" t="s">
+      <c r="C176" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D176" s="24"/>
-      <c r="E176" s="24"/>
-      <c r="F176" s="24"/>
-      <c r="G176" s="24"/>
-      <c r="H176" s="24"/>
-      <c r="I176" s="24"/>
-      <c r="J176" s="24"/>
-      <c r="K176" s="24"/>
-      <c r="L176" s="24"/>
-      <c r="M176" s="25"/>
+      <c r="D176" s="31"/>
+      <c r="E176" s="31"/>
+      <c r="F176" s="31"/>
+      <c r="G176" s="31"/>
+      <c r="H176" s="31"/>
+      <c r="I176" s="31"/>
+      <c r="J176" s="31"/>
+      <c r="K176" s="31"/>
+      <c r="L176" s="31"/>
+      <c r="M176" s="32"/>
     </row>
     <row r="177" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A177" s="20"/>
-      <c r="B177" s="22"/>
+      <c r="A177" s="27"/>
+      <c r="B177" s="29"/>
       <c r="C177" s="1" t="s">
         <v>5</v>
       </c>
@@ -19422,19 +19463,19 @@
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A178" s="26"/>
-      <c r="B178" s="27"/>
-      <c r="C178" s="27"/>
-      <c r="D178" s="27"/>
-      <c r="E178" s="27"/>
-      <c r="F178" s="27"/>
-      <c r="G178" s="27"/>
-      <c r="H178" s="27"/>
-      <c r="I178" s="27"/>
-      <c r="J178" s="27"/>
-      <c r="K178" s="27"/>
-      <c r="L178" s="27"/>
-      <c r="M178" s="28"/>
+      <c r="A178" s="23"/>
+      <c r="B178" s="24"/>
+      <c r="C178" s="24"/>
+      <c r="D178" s="24"/>
+      <c r="E178" s="24"/>
+      <c r="F178" s="24"/>
+      <c r="G178" s="24"/>
+      <c r="H178" s="24"/>
+      <c r="I178" s="24"/>
+      <c r="J178" s="24"/>
+      <c r="K178" s="24"/>
+      <c r="L178" s="24"/>
+      <c r="M178" s="25"/>
     </row>
     <row r="179" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A179" s="8" t="s">
@@ -19478,29 +19519,29 @@
       </c>
     </row>
     <row r="181" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A181" s="19" t="s">
+      <c r="A181" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B181" s="21" t="s">
+      <c r="B181" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C181" s="23" t="s">
+      <c r="C181" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D181" s="24"/>
-      <c r="E181" s="24"/>
-      <c r="F181" s="24"/>
-      <c r="G181" s="24"/>
-      <c r="H181" s="24"/>
-      <c r="I181" s="24"/>
-      <c r="J181" s="24"/>
-      <c r="K181" s="24"/>
-      <c r="L181" s="24"/>
-      <c r="M181" s="25"/>
+      <c r="D181" s="31"/>
+      <c r="E181" s="31"/>
+      <c r="F181" s="31"/>
+      <c r="G181" s="31"/>
+      <c r="H181" s="31"/>
+      <c r="I181" s="31"/>
+      <c r="J181" s="31"/>
+      <c r="K181" s="31"/>
+      <c r="L181" s="31"/>
+      <c r="M181" s="32"/>
     </row>
     <row r="182" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A182" s="20"/>
-      <c r="B182" s="22"/>
+      <c r="A182" s="27"/>
+      <c r="B182" s="29"/>
       <c r="C182" s="1" t="s">
         <v>5</v>
       </c>
@@ -19536,19 +19577,19 @@
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A183" s="26"/>
-      <c r="B183" s="27"/>
-      <c r="C183" s="27"/>
-      <c r="D183" s="27"/>
-      <c r="E183" s="27"/>
-      <c r="F183" s="27"/>
-      <c r="G183" s="27"/>
-      <c r="H183" s="27"/>
-      <c r="I183" s="27"/>
-      <c r="J183" s="27"/>
-      <c r="K183" s="27"/>
-      <c r="L183" s="27"/>
-      <c r="M183" s="28"/>
+      <c r="A183" s="23"/>
+      <c r="B183" s="24"/>
+      <c r="C183" s="24"/>
+      <c r="D183" s="24"/>
+      <c r="E183" s="24"/>
+      <c r="F183" s="24"/>
+      <c r="G183" s="24"/>
+      <c r="H183" s="24"/>
+      <c r="I183" s="24"/>
+      <c r="J183" s="24"/>
+      <c r="K183" s="24"/>
+      <c r="L183" s="24"/>
+      <c r="M183" s="25"/>
     </row>
     <row r="184" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A184" s="8" t="s">
@@ -19592,29 +19633,29 @@
       </c>
     </row>
     <row r="186" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A186" s="19" t="s">
+      <c r="A186" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B186" s="21" t="s">
+      <c r="B186" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C186" s="23" t="s">
+      <c r="C186" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D186" s="24"/>
-      <c r="E186" s="24"/>
-      <c r="F186" s="24"/>
-      <c r="G186" s="24"/>
-      <c r="H186" s="24"/>
-      <c r="I186" s="24"/>
-      <c r="J186" s="24"/>
-      <c r="K186" s="24"/>
-      <c r="L186" s="24"/>
-      <c r="M186" s="25"/>
+      <c r="D186" s="31"/>
+      <c r="E186" s="31"/>
+      <c r="F186" s="31"/>
+      <c r="G186" s="31"/>
+      <c r="H186" s="31"/>
+      <c r="I186" s="31"/>
+      <c r="J186" s="31"/>
+      <c r="K186" s="31"/>
+      <c r="L186" s="31"/>
+      <c r="M186" s="32"/>
     </row>
     <row r="187" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A187" s="20"/>
-      <c r="B187" s="22"/>
+      <c r="A187" s="27"/>
+      <c r="B187" s="29"/>
       <c r="C187" s="1" t="s">
         <v>5</v>
       </c>
@@ -19650,19 +19691,19 @@
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A188" s="26"/>
-      <c r="B188" s="27"/>
-      <c r="C188" s="27"/>
-      <c r="D188" s="27"/>
-      <c r="E188" s="27"/>
-      <c r="F188" s="27"/>
-      <c r="G188" s="27"/>
-      <c r="H188" s="27"/>
-      <c r="I188" s="27"/>
-      <c r="J188" s="27"/>
-      <c r="K188" s="27"/>
-      <c r="L188" s="27"/>
-      <c r="M188" s="28"/>
+      <c r="A188" s="23"/>
+      <c r="B188" s="24"/>
+      <c r="C188" s="24"/>
+      <c r="D188" s="24"/>
+      <c r="E188" s="24"/>
+      <c r="F188" s="24"/>
+      <c r="G188" s="24"/>
+      <c r="H188" s="24"/>
+      <c r="I188" s="24"/>
+      <c r="J188" s="24"/>
+      <c r="K188" s="24"/>
+      <c r="L188" s="24"/>
+      <c r="M188" s="25"/>
     </row>
     <row r="189" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A189" s="8" t="s">
@@ -19706,29 +19747,29 @@
       </c>
     </row>
     <row r="191" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A191" s="19" t="s">
+      <c r="A191" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B191" s="21" t="s">
+      <c r="B191" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C191" s="23" t="s">
+      <c r="C191" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D191" s="24"/>
-      <c r="E191" s="24"/>
-      <c r="F191" s="24"/>
-      <c r="G191" s="24"/>
-      <c r="H191" s="24"/>
-      <c r="I191" s="24"/>
-      <c r="J191" s="24"/>
-      <c r="K191" s="24"/>
-      <c r="L191" s="24"/>
-      <c r="M191" s="25"/>
+      <c r="D191" s="31"/>
+      <c r="E191" s="31"/>
+      <c r="F191" s="31"/>
+      <c r="G191" s="31"/>
+      <c r="H191" s="31"/>
+      <c r="I191" s="31"/>
+      <c r="J191" s="31"/>
+      <c r="K191" s="31"/>
+      <c r="L191" s="31"/>
+      <c r="M191" s="32"/>
     </row>
     <row r="192" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A192" s="20"/>
-      <c r="B192" s="22"/>
+      <c r="A192" s="27"/>
+      <c r="B192" s="29"/>
       <c r="C192" s="1" t="s">
         <v>5</v>
       </c>
@@ -19764,19 +19805,19 @@
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A193" s="26"/>
-      <c r="B193" s="27"/>
-      <c r="C193" s="27"/>
-      <c r="D193" s="27"/>
-      <c r="E193" s="27"/>
-      <c r="F193" s="27"/>
-      <c r="G193" s="27"/>
-      <c r="H193" s="27"/>
-      <c r="I193" s="27"/>
-      <c r="J193" s="27"/>
-      <c r="K193" s="27"/>
-      <c r="L193" s="27"/>
-      <c r="M193" s="28"/>
+      <c r="A193" s="23"/>
+      <c r="B193" s="24"/>
+      <c r="C193" s="24"/>
+      <c r="D193" s="24"/>
+      <c r="E193" s="24"/>
+      <c r="F193" s="24"/>
+      <c r="G193" s="24"/>
+      <c r="H193" s="24"/>
+      <c r="I193" s="24"/>
+      <c r="J193" s="24"/>
+      <c r="K193" s="24"/>
+      <c r="L193" s="24"/>
+      <c r="M193" s="25"/>
     </row>
     <row r="194" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A194" s="8" t="s">
@@ -19820,29 +19861,29 @@
       </c>
     </row>
     <row r="196" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A196" s="19" t="s">
+      <c r="A196" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B196" s="21" t="s">
+      <c r="B196" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C196" s="23" t="s">
+      <c r="C196" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D196" s="24"/>
-      <c r="E196" s="24"/>
-      <c r="F196" s="24"/>
-      <c r="G196" s="24"/>
-      <c r="H196" s="24"/>
-      <c r="I196" s="24"/>
-      <c r="J196" s="24"/>
-      <c r="K196" s="24"/>
-      <c r="L196" s="24"/>
-      <c r="M196" s="25"/>
+      <c r="D196" s="31"/>
+      <c r="E196" s="31"/>
+      <c r="F196" s="31"/>
+      <c r="G196" s="31"/>
+      <c r="H196" s="31"/>
+      <c r="I196" s="31"/>
+      <c r="J196" s="31"/>
+      <c r="K196" s="31"/>
+      <c r="L196" s="31"/>
+      <c r="M196" s="32"/>
     </row>
     <row r="197" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A197" s="20"/>
-      <c r="B197" s="22"/>
+      <c r="A197" s="27"/>
+      <c r="B197" s="29"/>
       <c r="C197" s="1" t="s">
         <v>5</v>
       </c>
@@ -19878,19 +19919,19 @@
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A198" s="26"/>
-      <c r="B198" s="27"/>
-      <c r="C198" s="27"/>
-      <c r="D198" s="27"/>
-      <c r="E198" s="27"/>
-      <c r="F198" s="27"/>
-      <c r="G198" s="27"/>
-      <c r="H198" s="27"/>
-      <c r="I198" s="27"/>
-      <c r="J198" s="27"/>
-      <c r="K198" s="27"/>
-      <c r="L198" s="27"/>
-      <c r="M198" s="28"/>
+      <c r="A198" s="23"/>
+      <c r="B198" s="24"/>
+      <c r="C198" s="24"/>
+      <c r="D198" s="24"/>
+      <c r="E198" s="24"/>
+      <c r="F198" s="24"/>
+      <c r="G198" s="24"/>
+      <c r="H198" s="24"/>
+      <c r="I198" s="24"/>
+      <c r="J198" s="24"/>
+      <c r="K198" s="24"/>
+      <c r="L198" s="24"/>
+      <c r="M198" s="25"/>
     </row>
     <row r="199" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A199" s="8" t="s">
@@ -19934,29 +19975,29 @@
       </c>
     </row>
     <row r="201" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A201" s="19" t="s">
+      <c r="A201" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B201" s="21" t="s">
+      <c r="B201" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C201" s="23" t="s">
+      <c r="C201" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D201" s="24"/>
-      <c r="E201" s="24"/>
-      <c r="F201" s="24"/>
-      <c r="G201" s="24"/>
-      <c r="H201" s="24"/>
-      <c r="I201" s="24"/>
-      <c r="J201" s="24"/>
-      <c r="K201" s="24"/>
-      <c r="L201" s="24"/>
-      <c r="M201" s="25"/>
+      <c r="D201" s="31"/>
+      <c r="E201" s="31"/>
+      <c r="F201" s="31"/>
+      <c r="G201" s="31"/>
+      <c r="H201" s="31"/>
+      <c r="I201" s="31"/>
+      <c r="J201" s="31"/>
+      <c r="K201" s="31"/>
+      <c r="L201" s="31"/>
+      <c r="M201" s="32"/>
     </row>
     <row r="202" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A202" s="20"/>
-      <c r="B202" s="22"/>
+      <c r="A202" s="27"/>
+      <c r="B202" s="29"/>
       <c r="C202" s="1" t="s">
         <v>5</v>
       </c>
@@ -19992,19 +20033,19 @@
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A203" s="26"/>
-      <c r="B203" s="27"/>
-      <c r="C203" s="27"/>
-      <c r="D203" s="27"/>
-      <c r="E203" s="27"/>
-      <c r="F203" s="27"/>
-      <c r="G203" s="27"/>
-      <c r="H203" s="27"/>
-      <c r="I203" s="27"/>
-      <c r="J203" s="27"/>
-      <c r="K203" s="27"/>
-      <c r="L203" s="27"/>
-      <c r="M203" s="28"/>
+      <c r="A203" s="23"/>
+      <c r="B203" s="24"/>
+      <c r="C203" s="24"/>
+      <c r="D203" s="24"/>
+      <c r="E203" s="24"/>
+      <c r="F203" s="24"/>
+      <c r="G203" s="24"/>
+      <c r="H203" s="24"/>
+      <c r="I203" s="24"/>
+      <c r="J203" s="24"/>
+      <c r="K203" s="24"/>
+      <c r="L203" s="24"/>
+      <c r="M203" s="25"/>
     </row>
     <row r="204" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A204" s="8" t="s">
@@ -20048,29 +20089,29 @@
       </c>
     </row>
     <row r="206" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A206" s="19" t="s">
+      <c r="A206" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B206" s="21" t="s">
+      <c r="B206" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C206" s="23" t="s">
+      <c r="C206" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D206" s="24"/>
-      <c r="E206" s="24"/>
-      <c r="F206" s="24"/>
-      <c r="G206" s="24"/>
-      <c r="H206" s="24"/>
-      <c r="I206" s="24"/>
-      <c r="J206" s="24"/>
-      <c r="K206" s="24"/>
-      <c r="L206" s="24"/>
-      <c r="M206" s="25"/>
+      <c r="D206" s="31"/>
+      <c r="E206" s="31"/>
+      <c r="F206" s="31"/>
+      <c r="G206" s="31"/>
+      <c r="H206" s="31"/>
+      <c r="I206" s="31"/>
+      <c r="J206" s="31"/>
+      <c r="K206" s="31"/>
+      <c r="L206" s="31"/>
+      <c r="M206" s="32"/>
     </row>
     <row r="207" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A207" s="20"/>
-      <c r="B207" s="22"/>
+      <c r="A207" s="27"/>
+      <c r="B207" s="29"/>
       <c r="C207" s="1" t="s">
         <v>5</v>
       </c>
@@ -20106,19 +20147,19 @@
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A208" s="26"/>
-      <c r="B208" s="27"/>
-      <c r="C208" s="27"/>
-      <c r="D208" s="27"/>
-      <c r="E208" s="27"/>
-      <c r="F208" s="27"/>
-      <c r="G208" s="27"/>
-      <c r="H208" s="27"/>
-      <c r="I208" s="27"/>
-      <c r="J208" s="27"/>
-      <c r="K208" s="27"/>
-      <c r="L208" s="27"/>
-      <c r="M208" s="28"/>
+      <c r="A208" s="23"/>
+      <c r="B208" s="24"/>
+      <c r="C208" s="24"/>
+      <c r="D208" s="24"/>
+      <c r="E208" s="24"/>
+      <c r="F208" s="24"/>
+      <c r="G208" s="24"/>
+      <c r="H208" s="24"/>
+      <c r="I208" s="24"/>
+      <c r="J208" s="24"/>
+      <c r="K208" s="24"/>
+      <c r="L208" s="24"/>
+      <c r="M208" s="25"/>
     </row>
     <row r="209" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A209" s="8" t="s">
@@ -20162,29 +20203,29 @@
       </c>
     </row>
     <row r="211" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A211" s="19" t="s">
+      <c r="A211" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B211" s="21" t="s">
+      <c r="B211" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C211" s="23" t="s">
+      <c r="C211" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D211" s="24"/>
-      <c r="E211" s="24"/>
-      <c r="F211" s="24"/>
-      <c r="G211" s="24"/>
-      <c r="H211" s="24"/>
-      <c r="I211" s="24"/>
-      <c r="J211" s="24"/>
-      <c r="K211" s="24"/>
-      <c r="L211" s="24"/>
-      <c r="M211" s="25"/>
+      <c r="D211" s="31"/>
+      <c r="E211" s="31"/>
+      <c r="F211" s="31"/>
+      <c r="G211" s="31"/>
+      <c r="H211" s="31"/>
+      <c r="I211" s="31"/>
+      <c r="J211" s="31"/>
+      <c r="K211" s="31"/>
+      <c r="L211" s="31"/>
+      <c r="M211" s="32"/>
     </row>
     <row r="212" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A212" s="20"/>
-      <c r="B212" s="22"/>
+      <c r="A212" s="27"/>
+      <c r="B212" s="29"/>
       <c r="C212" s="1" t="s">
         <v>5</v>
       </c>
@@ -20220,19 +20261,19 @@
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A213" s="26"/>
-      <c r="B213" s="27"/>
-      <c r="C213" s="27"/>
-      <c r="D213" s="27"/>
-      <c r="E213" s="27"/>
-      <c r="F213" s="27"/>
-      <c r="G213" s="27"/>
-      <c r="H213" s="27"/>
-      <c r="I213" s="27"/>
-      <c r="J213" s="27"/>
-      <c r="K213" s="27"/>
-      <c r="L213" s="27"/>
-      <c r="M213" s="28"/>
+      <c r="A213" s="23"/>
+      <c r="B213" s="24"/>
+      <c r="C213" s="24"/>
+      <c r="D213" s="24"/>
+      <c r="E213" s="24"/>
+      <c r="F213" s="24"/>
+      <c r="G213" s="24"/>
+      <c r="H213" s="24"/>
+      <c r="I213" s="24"/>
+      <c r="J213" s="24"/>
+      <c r="K213" s="24"/>
+      <c r="L213" s="24"/>
+      <c r="M213" s="25"/>
     </row>
     <row r="214" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A214" s="8" t="s">
@@ -20276,29 +20317,29 @@
       </c>
     </row>
     <row r="216" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A216" s="19" t="s">
+      <c r="A216" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B216" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C216" s="23" t="s">
+      <c r="B216" s="33" t="s">
+        <v>641</v>
+      </c>
+      <c r="C216" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D216" s="24"/>
-      <c r="E216" s="24"/>
-      <c r="F216" s="24"/>
-      <c r="G216" s="24"/>
-      <c r="H216" s="24"/>
-      <c r="I216" s="24"/>
-      <c r="J216" s="24"/>
-      <c r="K216" s="24"/>
-      <c r="L216" s="24"/>
-      <c r="M216" s="25"/>
+      <c r="D216" s="31"/>
+      <c r="E216" s="31"/>
+      <c r="F216" s="31"/>
+      <c r="G216" s="31"/>
+      <c r="H216" s="31"/>
+      <c r="I216" s="31"/>
+      <c r="J216" s="31"/>
+      <c r="K216" s="31"/>
+      <c r="L216" s="31"/>
+      <c r="M216" s="32"/>
     </row>
     <row r="217" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A217" s="20"/>
-      <c r="B217" s="22"/>
+      <c r="A217" s="27"/>
+      <c r="B217" s="29"/>
       <c r="C217" s="1" t="s">
         <v>5</v>
       </c>
@@ -20334,19 +20375,19 @@
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A218" s="26"/>
-      <c r="B218" s="27"/>
-      <c r="C218" s="27"/>
-      <c r="D218" s="27"/>
-      <c r="E218" s="27"/>
-      <c r="F218" s="27"/>
-      <c r="G218" s="27"/>
-      <c r="H218" s="27"/>
-      <c r="I218" s="27"/>
-      <c r="J218" s="27"/>
-      <c r="K218" s="27"/>
-      <c r="L218" s="27"/>
-      <c r="M218" s="28"/>
+      <c r="A218" s="23"/>
+      <c r="B218" s="24"/>
+      <c r="C218" s="24"/>
+      <c r="D218" s="24"/>
+      <c r="E218" s="24"/>
+      <c r="F218" s="24"/>
+      <c r="G218" s="24"/>
+      <c r="H218" s="24"/>
+      <c r="I218" s="24"/>
+      <c r="J218" s="24"/>
+      <c r="K218" s="24"/>
+      <c r="L218" s="24"/>
+      <c r="M218" s="25"/>
     </row>
     <row r="219" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A219" s="8" t="s">
@@ -20390,29 +20431,29 @@
       </c>
     </row>
     <row r="221" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A221" s="19" t="s">
+      <c r="A221" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B221" s="21" t="s">
+      <c r="B221" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C221" s="23" t="s">
+      <c r="C221" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D221" s="24"/>
-      <c r="E221" s="24"/>
-      <c r="F221" s="24"/>
-      <c r="G221" s="24"/>
-      <c r="H221" s="24"/>
-      <c r="I221" s="24"/>
-      <c r="J221" s="24"/>
-      <c r="K221" s="24"/>
-      <c r="L221" s="24"/>
-      <c r="M221" s="25"/>
+      <c r="D221" s="31"/>
+      <c r="E221" s="31"/>
+      <c r="F221" s="31"/>
+      <c r="G221" s="31"/>
+      <c r="H221" s="31"/>
+      <c r="I221" s="31"/>
+      <c r="J221" s="31"/>
+      <c r="K221" s="31"/>
+      <c r="L221" s="31"/>
+      <c r="M221" s="32"/>
     </row>
     <row r="222" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A222" s="20"/>
-      <c r="B222" s="22"/>
+      <c r="A222" s="27"/>
+      <c r="B222" s="29"/>
       <c r="C222" s="1" t="s">
         <v>5</v>
       </c>
@@ -20448,19 +20489,19 @@
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A223" s="26"/>
-      <c r="B223" s="27"/>
-      <c r="C223" s="27"/>
-      <c r="D223" s="27"/>
-      <c r="E223" s="27"/>
-      <c r="F223" s="27"/>
-      <c r="G223" s="27"/>
-      <c r="H223" s="27"/>
-      <c r="I223" s="27"/>
-      <c r="J223" s="27"/>
-      <c r="K223" s="27"/>
-      <c r="L223" s="27"/>
-      <c r="M223" s="28"/>
+      <c r="A223" s="23"/>
+      <c r="B223" s="24"/>
+      <c r="C223" s="24"/>
+      <c r="D223" s="24"/>
+      <c r="E223" s="24"/>
+      <c r="F223" s="24"/>
+      <c r="G223" s="24"/>
+      <c r="H223" s="24"/>
+      <c r="I223" s="24"/>
+      <c r="J223" s="24"/>
+      <c r="K223" s="24"/>
+      <c r="L223" s="24"/>
+      <c r="M223" s="25"/>
     </row>
     <row r="224" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A224" s="8" t="s">
@@ -20504,29 +20545,29 @@
       </c>
     </row>
     <row r="226" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A226" s="19" t="s">
+      <c r="A226" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B226" s="21" t="s">
+      <c r="B226" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C226" s="23" t="s">
+      <c r="C226" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D226" s="24"/>
-      <c r="E226" s="24"/>
-      <c r="F226" s="24"/>
-      <c r="G226" s="24"/>
-      <c r="H226" s="24"/>
-      <c r="I226" s="24"/>
-      <c r="J226" s="24"/>
-      <c r="K226" s="24"/>
-      <c r="L226" s="24"/>
-      <c r="M226" s="25"/>
+      <c r="D226" s="31"/>
+      <c r="E226" s="31"/>
+      <c r="F226" s="31"/>
+      <c r="G226" s="31"/>
+      <c r="H226" s="31"/>
+      <c r="I226" s="31"/>
+      <c r="J226" s="31"/>
+      <c r="K226" s="31"/>
+      <c r="L226" s="31"/>
+      <c r="M226" s="32"/>
     </row>
     <row r="227" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A227" s="20"/>
-      <c r="B227" s="22"/>
+      <c r="A227" s="27"/>
+      <c r="B227" s="29"/>
       <c r="C227" s="1" t="s">
         <v>5</v>
       </c>
@@ -20562,19 +20603,19 @@
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A228" s="26"/>
-      <c r="B228" s="27"/>
-      <c r="C228" s="27"/>
-      <c r="D228" s="27"/>
-      <c r="E228" s="27"/>
-      <c r="F228" s="27"/>
-      <c r="G228" s="27"/>
-      <c r="H228" s="27"/>
-      <c r="I228" s="27"/>
-      <c r="J228" s="27"/>
-      <c r="K228" s="27"/>
-      <c r="L228" s="27"/>
-      <c r="M228" s="28"/>
+      <c r="A228" s="23"/>
+      <c r="B228" s="24"/>
+      <c r="C228" s="24"/>
+      <c r="D228" s="24"/>
+      <c r="E228" s="24"/>
+      <c r="F228" s="24"/>
+      <c r="G228" s="24"/>
+      <c r="H228" s="24"/>
+      <c r="I228" s="24"/>
+      <c r="J228" s="24"/>
+      <c r="K228" s="24"/>
+      <c r="L228" s="24"/>
+      <c r="M228" s="25"/>
     </row>
     <row r="229" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A229" s="8" t="s">
@@ -20618,29 +20659,29 @@
       </c>
     </row>
     <row r="231" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A231" s="19" t="s">
+      <c r="A231" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B231" s="21" t="s">
+      <c r="B231" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C231" s="23" t="s">
+      <c r="C231" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D231" s="24"/>
-      <c r="E231" s="24"/>
-      <c r="F231" s="24"/>
-      <c r="G231" s="24"/>
-      <c r="H231" s="24"/>
-      <c r="I231" s="24"/>
-      <c r="J231" s="24"/>
-      <c r="K231" s="24"/>
-      <c r="L231" s="24"/>
-      <c r="M231" s="25"/>
+      <c r="D231" s="31"/>
+      <c r="E231" s="31"/>
+      <c r="F231" s="31"/>
+      <c r="G231" s="31"/>
+      <c r="H231" s="31"/>
+      <c r="I231" s="31"/>
+      <c r="J231" s="31"/>
+      <c r="K231" s="31"/>
+      <c r="L231" s="31"/>
+      <c r="M231" s="32"/>
     </row>
     <row r="232" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A232" s="20"/>
-      <c r="B232" s="22"/>
+      <c r="A232" s="27"/>
+      <c r="B232" s="29"/>
       <c r="C232" s="1" t="s">
         <v>5</v>
       </c>
@@ -20676,19 +20717,19 @@
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A233" s="26"/>
-      <c r="B233" s="27"/>
-      <c r="C233" s="27"/>
-      <c r="D233" s="27"/>
-      <c r="E233" s="27"/>
-      <c r="F233" s="27"/>
-      <c r="G233" s="27"/>
-      <c r="H233" s="27"/>
-      <c r="I233" s="27"/>
-      <c r="J233" s="27"/>
-      <c r="K233" s="27"/>
-      <c r="L233" s="27"/>
-      <c r="M233" s="28"/>
+      <c r="A233" s="23"/>
+      <c r="B233" s="24"/>
+      <c r="C233" s="24"/>
+      <c r="D233" s="24"/>
+      <c r="E233" s="24"/>
+      <c r="F233" s="24"/>
+      <c r="G233" s="24"/>
+      <c r="H233" s="24"/>
+      <c r="I233" s="24"/>
+      <c r="J233" s="24"/>
+      <c r="K233" s="24"/>
+      <c r="L233" s="24"/>
+      <c r="M233" s="25"/>
     </row>
     <row r="234" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A234" s="8" t="s">
@@ -20732,29 +20773,29 @@
       </c>
     </row>
     <row r="236" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A236" s="19" t="s">
+      <c r="A236" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B236" s="21" t="s">
+      <c r="B236" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C236" s="23" t="s">
+      <c r="C236" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D236" s="24"/>
-      <c r="E236" s="24"/>
-      <c r="F236" s="24"/>
-      <c r="G236" s="24"/>
-      <c r="H236" s="24"/>
-      <c r="I236" s="24"/>
-      <c r="J236" s="24"/>
-      <c r="K236" s="24"/>
-      <c r="L236" s="24"/>
-      <c r="M236" s="25"/>
+      <c r="D236" s="31"/>
+      <c r="E236" s="31"/>
+      <c r="F236" s="31"/>
+      <c r="G236" s="31"/>
+      <c r="H236" s="31"/>
+      <c r="I236" s="31"/>
+      <c r="J236" s="31"/>
+      <c r="K236" s="31"/>
+      <c r="L236" s="31"/>
+      <c r="M236" s="32"/>
     </row>
     <row r="237" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A237" s="20"/>
-      <c r="B237" s="22"/>
+      <c r="A237" s="27"/>
+      <c r="B237" s="29"/>
       <c r="C237" s="1" t="s">
         <v>5</v>
       </c>
@@ -20790,19 +20831,19 @@
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A238" s="26"/>
-      <c r="B238" s="27"/>
-      <c r="C238" s="27"/>
-      <c r="D238" s="27"/>
-      <c r="E238" s="27"/>
-      <c r="F238" s="27"/>
-      <c r="G238" s="27"/>
-      <c r="H238" s="27"/>
-      <c r="I238" s="27"/>
-      <c r="J238" s="27"/>
-      <c r="K238" s="27"/>
-      <c r="L238" s="27"/>
-      <c r="M238" s="28"/>
+      <c r="A238" s="23"/>
+      <c r="B238" s="24"/>
+      <c r="C238" s="24"/>
+      <c r="D238" s="24"/>
+      <c r="E238" s="24"/>
+      <c r="F238" s="24"/>
+      <c r="G238" s="24"/>
+      <c r="H238" s="24"/>
+      <c r="I238" s="24"/>
+      <c r="J238" s="24"/>
+      <c r="K238" s="24"/>
+      <c r="L238" s="24"/>
+      <c r="M238" s="25"/>
     </row>
     <row r="239" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A239" s="8" t="s">
@@ -20846,29 +20887,29 @@
       </c>
     </row>
     <row r="241" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A241" s="19" t="s">
+      <c r="A241" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B241" s="21" t="s">
+      <c r="B241" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C241" s="23" t="s">
+      <c r="C241" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D241" s="24"/>
-      <c r="E241" s="24"/>
-      <c r="F241" s="24"/>
-      <c r="G241" s="24"/>
-      <c r="H241" s="24"/>
-      <c r="I241" s="24"/>
-      <c r="J241" s="24"/>
-      <c r="K241" s="24"/>
-      <c r="L241" s="24"/>
-      <c r="M241" s="25"/>
+      <c r="D241" s="31"/>
+      <c r="E241" s="31"/>
+      <c r="F241" s="31"/>
+      <c r="G241" s="31"/>
+      <c r="H241" s="31"/>
+      <c r="I241" s="31"/>
+      <c r="J241" s="31"/>
+      <c r="K241" s="31"/>
+      <c r="L241" s="31"/>
+      <c r="M241" s="32"/>
     </row>
     <row r="242" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A242" s="20"/>
-      <c r="B242" s="22"/>
+      <c r="A242" s="27"/>
+      <c r="B242" s="29"/>
       <c r="C242" s="1" t="s">
         <v>5</v>
       </c>
@@ -20904,19 +20945,19 @@
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A243" s="26"/>
-      <c r="B243" s="27"/>
-      <c r="C243" s="27"/>
-      <c r="D243" s="27"/>
-      <c r="E243" s="27"/>
-      <c r="F243" s="27"/>
-      <c r="G243" s="27"/>
-      <c r="H243" s="27"/>
-      <c r="I243" s="27"/>
-      <c r="J243" s="27"/>
-      <c r="K243" s="27"/>
-      <c r="L243" s="27"/>
-      <c r="M243" s="28"/>
+      <c r="A243" s="23"/>
+      <c r="B243" s="24"/>
+      <c r="C243" s="24"/>
+      <c r="D243" s="24"/>
+      <c r="E243" s="24"/>
+      <c r="F243" s="24"/>
+      <c r="G243" s="24"/>
+      <c r="H243" s="24"/>
+      <c r="I243" s="24"/>
+      <c r="J243" s="24"/>
+      <c r="K243" s="24"/>
+      <c r="L243" s="24"/>
+      <c r="M243" s="25"/>
     </row>
     <row r="244" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A244" s="8" t="s">
@@ -20960,29 +21001,29 @@
       </c>
     </row>
     <row r="246" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A246" s="19" t="s">
+      <c r="A246" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B246" s="21" t="s">
+      <c r="B246" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C246" s="23" t="s">
+      <c r="C246" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D246" s="24"/>
-      <c r="E246" s="24"/>
-      <c r="F246" s="24"/>
-      <c r="G246" s="24"/>
-      <c r="H246" s="24"/>
-      <c r="I246" s="24"/>
-      <c r="J246" s="24"/>
-      <c r="K246" s="24"/>
-      <c r="L246" s="24"/>
-      <c r="M246" s="25"/>
+      <c r="D246" s="31"/>
+      <c r="E246" s="31"/>
+      <c r="F246" s="31"/>
+      <c r="G246" s="31"/>
+      <c r="H246" s="31"/>
+      <c r="I246" s="31"/>
+      <c r="J246" s="31"/>
+      <c r="K246" s="31"/>
+      <c r="L246" s="31"/>
+      <c r="M246" s="32"/>
     </row>
     <row r="247" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A247" s="20"/>
-      <c r="B247" s="22"/>
+      <c r="A247" s="27"/>
+      <c r="B247" s="29"/>
       <c r="C247" s="1" t="s">
         <v>5</v>
       </c>
@@ -21018,19 +21059,19 @@
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A248" s="26"/>
-      <c r="B248" s="27"/>
-      <c r="C248" s="27"/>
-      <c r="D248" s="27"/>
-      <c r="E248" s="27"/>
-      <c r="F248" s="27"/>
-      <c r="G248" s="27"/>
-      <c r="H248" s="27"/>
-      <c r="I248" s="27"/>
-      <c r="J248" s="27"/>
-      <c r="K248" s="27"/>
-      <c r="L248" s="27"/>
-      <c r="M248" s="28"/>
+      <c r="A248" s="23"/>
+      <c r="B248" s="24"/>
+      <c r="C248" s="24"/>
+      <c r="D248" s="24"/>
+      <c r="E248" s="24"/>
+      <c r="F248" s="24"/>
+      <c r="G248" s="24"/>
+      <c r="H248" s="24"/>
+      <c r="I248" s="24"/>
+      <c r="J248" s="24"/>
+      <c r="K248" s="24"/>
+      <c r="L248" s="24"/>
+      <c r="M248" s="25"/>
     </row>
     <row r="249" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A249" s="8" t="s">
@@ -21074,29 +21115,29 @@
       </c>
     </row>
     <row r="251" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A251" s="19" t="s">
+      <c r="A251" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B251" s="21" t="s">
+      <c r="B251" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C251" s="23" t="s">
+      <c r="C251" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D251" s="24"/>
-      <c r="E251" s="24"/>
-      <c r="F251" s="24"/>
-      <c r="G251" s="24"/>
-      <c r="H251" s="24"/>
-      <c r="I251" s="24"/>
-      <c r="J251" s="24"/>
-      <c r="K251" s="24"/>
-      <c r="L251" s="24"/>
-      <c r="M251" s="25"/>
+      <c r="D251" s="31"/>
+      <c r="E251" s="31"/>
+      <c r="F251" s="31"/>
+      <c r="G251" s="31"/>
+      <c r="H251" s="31"/>
+      <c r="I251" s="31"/>
+      <c r="J251" s="31"/>
+      <c r="K251" s="31"/>
+      <c r="L251" s="31"/>
+      <c r="M251" s="32"/>
     </row>
     <row r="252" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A252" s="20"/>
-      <c r="B252" s="22"/>
+      <c r="A252" s="27"/>
+      <c r="B252" s="29"/>
       <c r="C252" s="1" t="s">
         <v>5</v>
       </c>
@@ -21132,19 +21173,19 @@
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A253" s="26"/>
-      <c r="B253" s="27"/>
-      <c r="C253" s="27"/>
-      <c r="D253" s="27"/>
-      <c r="E253" s="27"/>
-      <c r="F253" s="27"/>
-      <c r="G253" s="27"/>
-      <c r="H253" s="27"/>
-      <c r="I253" s="27"/>
-      <c r="J253" s="27"/>
-      <c r="K253" s="27"/>
-      <c r="L253" s="27"/>
-      <c r="M253" s="28"/>
+      <c r="A253" s="23"/>
+      <c r="B253" s="24"/>
+      <c r="C253" s="24"/>
+      <c r="D253" s="24"/>
+      <c r="E253" s="24"/>
+      <c r="F253" s="24"/>
+      <c r="G253" s="24"/>
+      <c r="H253" s="24"/>
+      <c r="I253" s="24"/>
+      <c r="J253" s="24"/>
+      <c r="K253" s="24"/>
+      <c r="L253" s="24"/>
+      <c r="M253" s="25"/>
     </row>
     <row r="254" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A254" s="8" t="s">
@@ -21188,29 +21229,29 @@
       </c>
     </row>
     <row r="256" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A256" s="19" t="s">
+      <c r="A256" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B256" s="21" t="s">
+      <c r="B256" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C256" s="23" t="s">
+      <c r="C256" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D256" s="24"/>
-      <c r="E256" s="24"/>
-      <c r="F256" s="24"/>
-      <c r="G256" s="24"/>
-      <c r="H256" s="24"/>
-      <c r="I256" s="24"/>
-      <c r="J256" s="24"/>
-      <c r="K256" s="24"/>
-      <c r="L256" s="24"/>
-      <c r="M256" s="25"/>
+      <c r="D256" s="31"/>
+      <c r="E256" s="31"/>
+      <c r="F256" s="31"/>
+      <c r="G256" s="31"/>
+      <c r="H256" s="31"/>
+      <c r="I256" s="31"/>
+      <c r="J256" s="31"/>
+      <c r="K256" s="31"/>
+      <c r="L256" s="31"/>
+      <c r="M256" s="32"/>
     </row>
     <row r="257" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A257" s="20"/>
-      <c r="B257" s="22"/>
+      <c r="A257" s="27"/>
+      <c r="B257" s="29"/>
       <c r="C257" s="1" t="s">
         <v>5</v>
       </c>
@@ -21246,19 +21287,19 @@
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A258" s="26"/>
-      <c r="B258" s="27"/>
-      <c r="C258" s="27"/>
-      <c r="D258" s="27"/>
-      <c r="E258" s="27"/>
-      <c r="F258" s="27"/>
-      <c r="G258" s="27"/>
-      <c r="H258" s="27"/>
-      <c r="I258" s="27"/>
-      <c r="J258" s="27"/>
-      <c r="K258" s="27"/>
-      <c r="L258" s="27"/>
-      <c r="M258" s="28"/>
+      <c r="A258" s="23"/>
+      <c r="B258" s="24"/>
+      <c r="C258" s="24"/>
+      <c r="D258" s="24"/>
+      <c r="E258" s="24"/>
+      <c r="F258" s="24"/>
+      <c r="G258" s="24"/>
+      <c r="H258" s="24"/>
+      <c r="I258" s="24"/>
+      <c r="J258" s="24"/>
+      <c r="K258" s="24"/>
+      <c r="L258" s="24"/>
+      <c r="M258" s="25"/>
     </row>
     <row r="259" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A259" s="8" t="s">
@@ -21302,29 +21343,29 @@
       </c>
     </row>
     <row r="261" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A261" s="19" t="s">
+      <c r="A261" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B261" s="21" t="s">
+      <c r="B261" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C261" s="23" t="s">
+      <c r="C261" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D261" s="24"/>
-      <c r="E261" s="24"/>
-      <c r="F261" s="24"/>
-      <c r="G261" s="24"/>
-      <c r="H261" s="24"/>
-      <c r="I261" s="24"/>
-      <c r="J261" s="24"/>
-      <c r="K261" s="24"/>
-      <c r="L261" s="24"/>
-      <c r="M261" s="25"/>
+      <c r="D261" s="31"/>
+      <c r="E261" s="31"/>
+      <c r="F261" s="31"/>
+      <c r="G261" s="31"/>
+      <c r="H261" s="31"/>
+      <c r="I261" s="31"/>
+      <c r="J261" s="31"/>
+      <c r="K261" s="31"/>
+      <c r="L261" s="31"/>
+      <c r="M261" s="32"/>
     </row>
     <row r="262" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A262" s="20"/>
-      <c r="B262" s="22"/>
+      <c r="A262" s="27"/>
+      <c r="B262" s="29"/>
       <c r="C262" s="1" t="s">
         <v>5</v>
       </c>
@@ -21360,19 +21401,19 @@
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A263" s="26"/>
-      <c r="B263" s="27"/>
-      <c r="C263" s="27"/>
-      <c r="D263" s="27"/>
-      <c r="E263" s="27"/>
-      <c r="F263" s="27"/>
-      <c r="G263" s="27"/>
-      <c r="H263" s="27"/>
-      <c r="I263" s="27"/>
-      <c r="J263" s="27"/>
-      <c r="K263" s="27"/>
-      <c r="L263" s="27"/>
-      <c r="M263" s="28"/>
+      <c r="A263" s="23"/>
+      <c r="B263" s="24"/>
+      <c r="C263" s="24"/>
+      <c r="D263" s="24"/>
+      <c r="E263" s="24"/>
+      <c r="F263" s="24"/>
+      <c r="G263" s="24"/>
+      <c r="H263" s="24"/>
+      <c r="I263" s="24"/>
+      <c r="J263" s="24"/>
+      <c r="K263" s="24"/>
+      <c r="L263" s="24"/>
+      <c r="M263" s="25"/>
     </row>
     <row r="264" spans="1:13" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A264" s="8" t="s">
@@ -21417,6 +21458,206 @@
     </row>
   </sheetData>
   <mergeCells count="212">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:M11"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:M16"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="A28:M28"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:M31"/>
+    <mergeCell ref="A33:M33"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:M36"/>
+    <mergeCell ref="A38:M38"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:M41"/>
+    <mergeCell ref="A43:M43"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:M46"/>
+    <mergeCell ref="A48:M48"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:M51"/>
+    <mergeCell ref="A53:M53"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:M56"/>
+    <mergeCell ref="A58:M58"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:M61"/>
+    <mergeCell ref="A63:M63"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:M66"/>
+    <mergeCell ref="A68:M68"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:M71"/>
+    <mergeCell ref="A73:M73"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:M76"/>
+    <mergeCell ref="A78:M78"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:M81"/>
+    <mergeCell ref="A83:M83"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:M86"/>
+    <mergeCell ref="A88:M88"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:M91"/>
+    <mergeCell ref="A93:M93"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:M96"/>
+    <mergeCell ref="A98:M98"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:M101"/>
+    <mergeCell ref="A103:M103"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:M106"/>
+    <mergeCell ref="A108:M108"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:M111"/>
+    <mergeCell ref="A113:M113"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:M116"/>
+    <mergeCell ref="A118:M118"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:M121"/>
+    <mergeCell ref="A123:M123"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:M126"/>
+    <mergeCell ref="A128:M128"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:M131"/>
+    <mergeCell ref="A133:M133"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:M136"/>
+    <mergeCell ref="A138:M138"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:M141"/>
+    <mergeCell ref="A143:M143"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="C146:M146"/>
+    <mergeCell ref="A148:M148"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:M151"/>
+    <mergeCell ref="A153:M153"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="C156:M156"/>
+    <mergeCell ref="A158:M158"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="C161:M161"/>
+    <mergeCell ref="A163:M163"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="C166:M166"/>
+    <mergeCell ref="A168:M168"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="C171:M171"/>
+    <mergeCell ref="A173:M173"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="C176:M176"/>
+    <mergeCell ref="A178:M178"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="C181:M181"/>
+    <mergeCell ref="A183:M183"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="C186:M186"/>
+    <mergeCell ref="A188:M188"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="C191:M191"/>
+    <mergeCell ref="A193:M193"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="C196:M196"/>
+    <mergeCell ref="A198:M198"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="C201:M201"/>
+    <mergeCell ref="A203:M203"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="C206:M206"/>
+    <mergeCell ref="A208:M208"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="C211:M211"/>
+    <mergeCell ref="A213:M213"/>
+    <mergeCell ref="A216:A217"/>
+    <mergeCell ref="B216:B217"/>
+    <mergeCell ref="C216:M216"/>
+    <mergeCell ref="A218:M218"/>
+    <mergeCell ref="A221:A222"/>
+    <mergeCell ref="B221:B222"/>
+    <mergeCell ref="C221:M221"/>
+    <mergeCell ref="A223:M223"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="B226:B227"/>
+    <mergeCell ref="C226:M226"/>
+    <mergeCell ref="A228:M228"/>
+    <mergeCell ref="A231:A232"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="C231:M231"/>
+    <mergeCell ref="A233:M233"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="C236:M236"/>
+    <mergeCell ref="A238:M238"/>
+    <mergeCell ref="A241:A242"/>
+    <mergeCell ref="B241:B242"/>
+    <mergeCell ref="C241:M241"/>
+    <mergeCell ref="A243:M243"/>
+    <mergeCell ref="A246:A247"/>
+    <mergeCell ref="B246:B247"/>
+    <mergeCell ref="C246:M246"/>
+    <mergeCell ref="A248:M248"/>
     <mergeCell ref="A263:M263"/>
     <mergeCell ref="A251:A252"/>
     <mergeCell ref="B251:B252"/>
@@ -21429,206 +21670,6 @@
     <mergeCell ref="A261:A262"/>
     <mergeCell ref="B261:B262"/>
     <mergeCell ref="C261:M261"/>
-    <mergeCell ref="A238:M238"/>
-    <mergeCell ref="A241:A242"/>
-    <mergeCell ref="B241:B242"/>
-    <mergeCell ref="C241:M241"/>
-    <mergeCell ref="A243:M243"/>
-    <mergeCell ref="A246:A247"/>
-    <mergeCell ref="B246:B247"/>
-    <mergeCell ref="C246:M246"/>
-    <mergeCell ref="A248:M248"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="B226:B227"/>
-    <mergeCell ref="C226:M226"/>
-    <mergeCell ref="A228:M228"/>
-    <mergeCell ref="A231:A232"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="C231:M231"/>
-    <mergeCell ref="A233:M233"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="C236:M236"/>
-    <mergeCell ref="A213:M213"/>
-    <mergeCell ref="A216:A217"/>
-    <mergeCell ref="B216:B217"/>
-    <mergeCell ref="C216:M216"/>
-    <mergeCell ref="A218:M218"/>
-    <mergeCell ref="A221:A222"/>
-    <mergeCell ref="B221:B222"/>
-    <mergeCell ref="C221:M221"/>
-    <mergeCell ref="A223:M223"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="C201:M201"/>
-    <mergeCell ref="A203:M203"/>
-    <mergeCell ref="A206:A207"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="C206:M206"/>
-    <mergeCell ref="A208:M208"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="C211:M211"/>
-    <mergeCell ref="A188:M188"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="C191:M191"/>
-    <mergeCell ref="A193:M193"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="C196:M196"/>
-    <mergeCell ref="A198:M198"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="C176:M176"/>
-    <mergeCell ref="A178:M178"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="C181:M181"/>
-    <mergeCell ref="A183:M183"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="C186:M186"/>
-    <mergeCell ref="A163:M163"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="C166:M166"/>
-    <mergeCell ref="A168:M168"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="C171:M171"/>
-    <mergeCell ref="A173:M173"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:M151"/>
-    <mergeCell ref="A153:M153"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="C156:M156"/>
-    <mergeCell ref="A158:M158"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="C161:M161"/>
-    <mergeCell ref="A138:M138"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:M141"/>
-    <mergeCell ref="A143:M143"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="C146:M146"/>
-    <mergeCell ref="A148:M148"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:M126"/>
-    <mergeCell ref="A128:M128"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:M131"/>
-    <mergeCell ref="A133:M133"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:M136"/>
-    <mergeCell ref="A113:M113"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:M116"/>
-    <mergeCell ref="A118:M118"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:M121"/>
-    <mergeCell ref="A123:M123"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:M101"/>
-    <mergeCell ref="A103:M103"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:M106"/>
-    <mergeCell ref="A108:M108"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:M111"/>
-    <mergeCell ref="A88:M88"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:M91"/>
-    <mergeCell ref="A93:M93"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:M96"/>
-    <mergeCell ref="A98:M98"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:M76"/>
-    <mergeCell ref="A78:M78"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:M81"/>
-    <mergeCell ref="A83:M83"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:M86"/>
-    <mergeCell ref="A63:M63"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:M66"/>
-    <mergeCell ref="A68:M68"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:M71"/>
-    <mergeCell ref="A73:M73"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:M51"/>
-    <mergeCell ref="A53:M53"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:M56"/>
-    <mergeCell ref="A58:M58"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:M61"/>
-    <mergeCell ref="A38:M38"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:M41"/>
-    <mergeCell ref="A43:M43"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:M46"/>
-    <mergeCell ref="A48:M48"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="A28:M28"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:M31"/>
-    <mergeCell ref="A33:M33"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:M36"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:M16"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="A23:M23"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:M11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
